--- a/results/combined_data_oversampled_result.xlsx
+++ b/results/combined_data_oversampled_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2053,294 @@
         <v>7670</v>
       </c>
     </row>
+    <row r="106">
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Avg Precision</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Avg Recall</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>Avg F1-score</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>Avg Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Action on Issue</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Bug Reproduction</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E108" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Contribution and Commitment</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E109" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>Expected Behaviour</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E110" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Investigation and Exploration</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E111" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Motivation</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E112" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Observed Bug Behaviour</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E113" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>Potential New Issues and Requests</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E114" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>Social Conversation</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E115" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Solution Discussion</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E116" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Solution Usage</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>Task Progress</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E118" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Workarounds</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E119" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>Total/Avg</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
